--- a/라키비움_고유업무 단위과제.xlsx
+++ b/라키비움_고유업무 단위과제.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="20415" windowHeight="11370" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="20415" windowHeight="11370"/>
   </bookViews>
   <sheets>
-    <sheet name="역점사업분류전체" sheetId="1" r:id="rId1"/>
-    <sheet name="경기천년사업만" sheetId="2" r:id="rId2"/>
-    <sheet name="예산과목기준" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="전략과제=단위과제-개별사업" sheetId="1" r:id="rId1"/>
+    <sheet name="전략과제=단위과제-단위과제카드" sheetId="2" r:id="rId2"/>
+    <sheet name="예산과목기준-개별사업" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="82">
   <si>
     <t>경기문화예술진흥</t>
   </si>
@@ -748,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -951,7 +950,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="36">
+    <row r="9" spans="1:9" ht="24">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1808,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2513,7 +2512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2910,334 +2911,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="37.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/라키비움_고유업무 단위과제.xlsx
+++ b/라키비움_고유업무 단위과제.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="20415" windowHeight="11370"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="20415" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="전략과제=단위과제-개별사업" sheetId="1" r:id="rId1"/>
-    <sheet name="전략과제=단위과제-단위과제카드" sheetId="2" r:id="rId2"/>
-    <sheet name="예산과목기준-개별사업" sheetId="4" r:id="rId3"/>
+    <sheet name="예산과목기준-개별사업" sheetId="4" r:id="rId1"/>
+    <sheet name="전략과제=단위과제-개별사업" sheetId="1" r:id="rId2"/>
+    <sheet name="전략과제=단위과제-단위과제카드" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>개별사업(예산기준)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>경기천년빛나는정신문화(경기그레이트북스100선)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -322,6 +318,10 @@
   </si>
   <si>
     <t>경기천년슬로건엠블럼개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별사업(단위과제카드)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -745,10 +745,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -760,8 +1165,9 @@
     <col min="5" max="5" width="19.875" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="20.75" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="38.75" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="38.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -784,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>57</v>
@@ -870,7 +1276,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2">
         <v>2018</v>
@@ -893,7 +1299,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2">
         <v>2018</v>
@@ -972,7 +1378,7 @@
         <v>2017</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -991,13 +1397,13 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2">
         <v>2018</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1319,13 +1725,13 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="2">
         <v>2018</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1344,13 +1750,13 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="2">
         <v>2018</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1369,13 +1775,13 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="2">
         <v>2018</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1394,13 +1800,13 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="2">
         <v>2018</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1460,16 +1866,16 @@
         <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="2">
         <v>2018</v>
@@ -1487,12 +1893,12 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="2">
         <v>2018</v>
@@ -1510,12 +1916,12 @@
         <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H32" s="2">
         <v>2018</v>
@@ -1533,12 +1939,12 @@
         <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H33" s="2">
         <v>2018</v>
@@ -1703,7 +2109,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40" s="2">
         <v>2018</v>
@@ -1730,13 +2136,13 @@
         <v>43</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="2">
         <v>2018</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1803,12 +2209,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1856,7 +2262,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2">
         <v>2018</v>
@@ -1876,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2">
         <v>2018</v>
@@ -1956,7 +2362,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2">
         <v>2018</v>
@@ -2236,7 +2642,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2">
         <v>2018</v>
@@ -2256,7 +2662,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="2">
         <v>2018</v>
@@ -2276,7 +2682,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2">
         <v>2018</v>
@@ -2296,7 +2702,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="2">
         <v>2018</v>
@@ -2316,7 +2722,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="2">
         <v>2017</v>
@@ -2333,10 +2739,10 @@
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F26" s="2">
         <v>2018</v>
@@ -2353,10 +2759,10 @@
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2">
         <v>2018</v>
@@ -2373,10 +2779,10 @@
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="2">
         <v>2018</v>
@@ -2393,10 +2799,10 @@
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="2">
         <v>2018</v>
@@ -2476,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="2">
         <v>2018</v>
@@ -2496,414 +2902,9 @@
         <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2">
         <v>2018</v>
       </c>
     </row>
